--- a/Temperature compensation optimisation/Interay/141442/SB_141442_Interay_alldata_cleaned_balanced_offset.xlsx
+++ b/Temperature compensation optimisation/Interay/141442/SB_141442_Interay_alldata_cleaned_balanced_offset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://althennl-my.sharepoint.com/personal/m_brummelhuis_althen_nl/Documents/Documenten/GitHub/Althen/Temperature compensation optimisation/Interay/141442/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="573" documentId="8_{5559FE62-1265-45CA-804F-29BC8098624C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3054B625-059A-40CA-8136-BA93A0FB4641}"/>
+  <xr:revisionPtr revIDLastSave="574" documentId="8_{5559FE62-1265-45CA-804F-29BC8098624C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A61FA0D-E292-4DEC-B851-8A9502A35FA1}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -471,7 +471,7 @@
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="Q178" sqref="Q178"/>
+      <selection pane="bottomLeft" activeCell="N170" sqref="N170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8124,7 +8124,7 @@
         <v>20</v>
       </c>
       <c r="N170" s="4">
-        <f t="shared" si="2"/>
+        <f>I170-1.48468</f>
         <v>1.93328875</v>
       </c>
     </row>
